--- a/evaluation/eval_out/评估数据集(retrieveInputData_V1_1)与结果处理.xlsx
+++ b/evaluation/eval_out/评估数据集(retrieveInputData_V1_1)与结果处理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="11655" activeTab="3"/>
+    <workbookView windowWidth="23400" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文心" sheetId="7" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="586">
   <si>
     <t>查询问题</t>
   </si>
@@ -1871,24 +1871,6 @@
   </si>
   <si>
     <t>引用文件是《中华人民共和国反洗钱法》。相关内容:第三十二条</t>
-  </si>
-  <si>
-    <r>
-      <t>切分策略：直接使用（Python）正则表达式，[r"第\S*条 "]，不区分块大小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-嵌入模型：模型名称： BAAI/bge-base-zh-v1.5 (使用归一化)
-向量存储：向量索引类型：IVF_FLAT （倒排文件索引+精确搜索）； 向量度量标准类型：IP（内积）； 聚类数目： 100； 存储数据库： Milvus
-向量检索：查询时聚类数目： 10； 检索返回最相似向量数目： 2</t>
-    </r>
   </si>
   <si>
     <t>33个问题 
@@ -4160,10 +4142,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4270,7 +4252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" ht="175.5" hidden="1" spans="1:10">
+    <row r="5" ht="175.5" spans="1:10">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -4332,7 +4314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" ht="189" hidden="1" spans="1:10">
+    <row r="7" ht="189" spans="1:10">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -4394,7 +4376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" ht="202.5" hidden="1" spans="1:10">
+    <row r="9" ht="202.5" spans="1:10">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -4456,7 +4438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" ht="189" hidden="1" spans="1:10">
+    <row r="11" ht="189" spans="1:10">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -4518,7 +4500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" ht="189" hidden="1" spans="1:10">
+    <row r="13" ht="189" spans="1:10">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -4580,7 +4562,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" ht="175.5" hidden="1" spans="1:10">
+    <row r="15" ht="175.5" spans="1:10">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -4642,7 +4624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" ht="189" hidden="1" spans="1:10">
+    <row r="17" ht="189" spans="1:10">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
@@ -4704,7 +4686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" ht="189" hidden="1" spans="1:10">
+    <row r="19" ht="189" spans="1:10">
       <c r="A19" s="25" t="s">
         <v>24</v>
       </c>
@@ -4766,7 +4748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" ht="189" hidden="1" spans="1:10">
+    <row r="21" ht="189" spans="1:10">
       <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
@@ -4828,7 +4810,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" ht="175.5" hidden="1" spans="1:10">
+    <row r="23" ht="175.5" spans="1:10">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -4890,7 +4872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" ht="189" hidden="1" spans="1:10">
+    <row r="25" ht="189" spans="1:10">
       <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
@@ -4920,7 +4902,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" ht="175.5" hidden="1" spans="1:10">
+    <row r="26" ht="175.5" spans="1:10">
       <c r="A26" s="25" t="s">
         <v>36</v>
       </c>
@@ -4952,7 +4934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="54" hidden="1" spans="1:10">
+    <row r="27" ht="54" spans="1:10">
       <c r="A27" s="25" t="s">
         <v>36</v>
       </c>
@@ -5014,7 +4996,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" ht="310.5" hidden="1" spans="1:10">
+    <row r="29" ht="310.5" spans="1:10">
       <c r="A29" s="9" t="s">
         <v>39</v>
       </c>
@@ -5076,7 +5058,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" ht="175.5" hidden="1" spans="1:10">
+    <row r="31" ht="175.5" spans="1:10">
       <c r="A31" s="9" t="s">
         <v>42</v>
       </c>
@@ -5138,7 +5120,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" ht="135" hidden="1" spans="1:10">
+    <row r="33" ht="135" spans="1:10">
       <c r="A33" s="9" t="s">
         <v>45</v>
       </c>
@@ -5168,7 +5150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" ht="148.5" hidden="1" spans="1:10">
+    <row r="34" ht="148.5" spans="1:10">
       <c r="A34" s="25" t="s">
         <v>48</v>
       </c>
@@ -5230,7 +5212,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" ht="189" hidden="1" spans="1:10">
+    <row r="36" ht="189" spans="1:10">
       <c r="A36" s="9" t="s">
         <v>51</v>
       </c>
@@ -5324,7 +5306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" ht="216" hidden="1" spans="1:10">
+    <row r="39" ht="216" spans="1:10">
       <c r="A39" s="9" t="s">
         <v>54</v>
       </c>
@@ -5386,7 +5368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" ht="189" hidden="1" spans="1:10">
+    <row r="41" ht="189" spans="1:10">
       <c r="A41" s="9" t="s">
         <v>57</v>
       </c>
@@ -5448,7 +5430,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" ht="189" hidden="1" spans="1:10">
+    <row r="43" ht="189" spans="1:10">
       <c r="A43" s="9" t="s">
         <v>60</v>
       </c>
@@ -5497,9 +5479,7 @@
       <c r="F44" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="11">
-        <v>1</v>
-      </c>
+      <c r="G44" s="11"/>
       <c r="H44" s="10">
         <v>0.5809</v>
       </c>
@@ -5510,7 +5490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" ht="135" hidden="1" spans="1:10">
+    <row r="45" ht="135" spans="1:10">
       <c r="A45" s="25" t="s">
         <v>63</v>
       </c>
@@ -5520,7 +5500,7 @@
       <c r="C45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="14" t="s">
         <v>171</v>
       </c>
       <c r="E45" s="10">
@@ -5529,7 +5509,9 @@
       <c r="F45" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="H45" s="10">
         <v>0.5784</v>
       </c>
@@ -5563,12 +5545,6 @@
           </dxf>
         </dxfs>
       </extLst>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="equal" val="100.00%"/>
-        <customFilter operator="equal" val="100%，未能排在第一位，而是第二位"/>
-      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -5943,7 +5919,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
@@ -7735,7 +7711,7 @@
   <sheetData>
     <row r="1" ht="55" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>439</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7749,7 +7725,7 @@
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -7804,7 +7780,7 @@
         <v>342</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E4" s="10">
         <v>0.7657</v>
@@ -7819,7 +7795,7 @@
         <v>0.685</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>79</v>
@@ -7836,23 +7812,23 @@
         <v>342</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E5" s="10">
         <v>0.7638</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10">
         <v>0.6565</v>
       </c>
       <c r="I5" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="6" ht="148.5" hidden="1" spans="1:10">
@@ -7866,7 +7842,7 @@
         <v>345</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E6" s="10">
         <v>0.6593</v>
@@ -7879,7 +7855,7 @@
         <v>0.6519</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>119</v>
@@ -7928,7 +7904,7 @@
         <v>348</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E8" s="10">
         <v>0.7667</v>
@@ -7943,10 +7919,10 @@
         <v>0.7002</v>
       </c>
       <c r="I8" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="9" ht="135" hidden="1" spans="1:10">
@@ -7960,7 +7936,7 @@
         <v>348</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E9" s="10">
         <v>0.7425</v>
@@ -7973,10 +7949,10 @@
         <v>0.6869</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" ht="175.5" spans="1:10">
@@ -7990,7 +7966,7 @@
         <v>351</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E10" s="10">
         <v>0.7543</v>
@@ -7999,13 +7975,13 @@
         <v>149</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H10" s="10">
         <v>0.7522</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>151</v>
@@ -8022,7 +7998,7 @@
         <v>351</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E11" s="10">
         <v>0.7357</v>
@@ -8035,7 +8011,7 @@
         <v>0.7334</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>151</v>
@@ -8061,7 +8037,7 @@
         <v>89</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H12" s="10">
         <v>0.7054</v>
@@ -8097,7 +8073,7 @@
         <v>0.6979</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>91</v>
@@ -8159,7 +8135,7 @@
         <v>0.655</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>109</v>
@@ -8176,7 +8152,7 @@
         <v>360</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E16" s="10">
         <v>0.7116</v>
@@ -8189,10 +8165,10 @@
         <v>0.6864</v>
       </c>
       <c r="I16" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="17" ht="175.5" hidden="1" spans="1:10">
@@ -8206,7 +8182,7 @@
         <v>360</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E17" s="10">
         <v>0.7067</v>
@@ -8221,10 +8197,10 @@
         <v>0.6559</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" ht="175.5" spans="1:10">
@@ -8238,25 +8214,25 @@
         <v>363</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E18" s="10">
         <v>0.7196</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>469</v>
       </c>
       <c r="H18" s="10">
         <v>0.7177</v>
       </c>
       <c r="I18" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="19" ht="148.5" hidden="1" spans="1:10">
@@ -8270,23 +8246,23 @@
         <v>363</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E19" s="10">
         <v>0.7153</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10">
         <v>0.6959</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" ht="175.5" hidden="1" spans="1:10">
@@ -8300,7 +8276,7 @@
         <v>366</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E20" s="10">
         <v>0.772</v>
@@ -8315,10 +8291,10 @@
         <v>0.6622</v>
       </c>
       <c r="I20" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="21" ht="121.5" hidden="1" spans="1:10">
@@ -8332,7 +8308,7 @@
         <v>366</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E21" s="10">
         <v>0.6598</v>
@@ -8345,10 +8321,10 @@
         <v>0.6359</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" ht="175.5" hidden="1" spans="1:10">
@@ -8362,7 +8338,7 @@
         <v>369</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E22" s="10">
         <v>0.8022</v>
@@ -8375,10 +8351,10 @@
         <v>0.679</v>
       </c>
       <c r="I22" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="23" ht="175.5" hidden="1" spans="1:10">
@@ -8392,7 +8368,7 @@
         <v>369</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E23" s="10">
         <v>0.7726</v>
@@ -8407,10 +8383,10 @@
         <v>0.6566</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" ht="175.5" hidden="1" spans="1:10">
@@ -8424,25 +8400,25 @@
         <v>372</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E24" s="10">
         <v>0.6768</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>486</v>
       </c>
       <c r="H24" s="10">
         <v>0.7126</v>
       </c>
       <c r="I24" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="25" ht="162" hidden="1" spans="1:10">
@@ -8456,23 +8432,23 @@
         <v>372</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E25" s="10">
         <v>0.6673</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10">
         <v>0.6596</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" ht="162" spans="1:10">
@@ -8486,25 +8462,25 @@
         <v>375</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E26" s="10">
         <v>0.6897</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H26" s="10">
         <v>0.6878</v>
       </c>
       <c r="I26" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="27" ht="148.5" hidden="1" spans="1:10">
@@ -8518,23 +8494,23 @@
         <v>375</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E27" s="10">
         <v>0.678</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="10">
         <v>0.6799</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" ht="162" hidden="1" spans="1:10">
@@ -8563,10 +8539,10 @@
         <v>0.6587</v>
       </c>
       <c r="I28" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="29" ht="94.5" hidden="1" spans="1:10">
@@ -8593,7 +8569,7 @@
         <v>0.5837</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>151</v>
@@ -8610,7 +8586,7 @@
         <v>381</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E30" s="10">
         <v>0.7202</v>
@@ -8619,16 +8595,16 @@
         <v>297</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H30" s="10">
         <v>0.7149</v>
       </c>
       <c r="I30" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="31" ht="175.5" hidden="1" spans="1:10">
@@ -8642,7 +8618,7 @@
         <v>381</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E31" s="10">
         <v>0.7069</v>
@@ -8655,10 +8631,10 @@
         <v>0.6982</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" ht="135" hidden="1" spans="1:10">
@@ -8672,7 +8648,7 @@
         <v>384</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E32" s="10">
         <v>0.6614</v>
@@ -8687,10 +8663,10 @@
         <v>0.6454</v>
       </c>
       <c r="I32" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="33" ht="175.5" hidden="1" spans="1:10">
@@ -8704,7 +8680,7 @@
         <v>384</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E33" s="10">
         <v>0.6413</v>
@@ -8717,10 +8693,10 @@
         <v>0.633</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" ht="121.5" hidden="1" spans="1:10">
@@ -8749,7 +8725,7 @@
         <v>0.5613</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>173</v>
@@ -8766,7 +8742,7 @@
         <v>387</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E35" s="10">
         <v>0.6633</v>
@@ -8779,7 +8755,7 @@
         <v>0.5612</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>173</v>
@@ -8796,23 +8772,23 @@
         <v>390</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E36" s="10">
         <v>0.738</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="10">
         <v>0.7053</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" ht="189" hidden="1" spans="1:10">
@@ -8826,13 +8802,13 @@
         <v>390</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E37" s="10">
         <v>0.7329</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>153</v>
@@ -8841,10 +8817,10 @@
         <v>0.6934</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" ht="162" spans="1:10">
@@ -8858,25 +8834,25 @@
         <v>393</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E38" s="10">
         <v>0.7623</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H38" s="10">
         <v>0.7437</v>
       </c>
       <c r="I38" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="39" ht="175.5" hidden="1" spans="1:10">
@@ -8890,23 +8866,23 @@
         <v>393</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E39" s="10">
         <v>0.7163</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="10">
         <v>0.7283</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" ht="162" hidden="1" spans="1:10">
@@ -8920,13 +8896,13 @@
         <v>396</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E40" s="10">
         <v>0.7534</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G40" s="11">
         <v>1</v>
@@ -8935,10 +8911,10 @@
         <v>0.7379</v>
       </c>
       <c r="I40" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="41" ht="162" hidden="1" spans="1:10">
@@ -8952,23 +8928,23 @@
         <v>396</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E41" s="10">
         <v>0.6981</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="10">
         <v>0.7048</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" ht="256.5" hidden="1" spans="1:10">
@@ -9000,7 +8976,7 @@
         <v>322</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" ht="162" hidden="1" spans="1:10">
@@ -9014,7 +8990,7 @@
         <v>399</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E43" s="10">
         <v>0.6675</v>
@@ -9027,10 +9003,10 @@
         <v>0.6691</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" ht="175.5" hidden="1" spans="1:10">
@@ -9044,7 +9020,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E44" s="10">
         <v>0.6688</v>
@@ -9057,10 +9033,10 @@
         <v>0.6432</v>
       </c>
       <c r="I44" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="45" ht="121.5" hidden="1" spans="1:10">
@@ -9089,10 +9065,10 @@
         <v>0.6394</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" ht="405" hidden="1" spans="1:10">
@@ -9106,7 +9082,7 @@
         <v>405</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E46" s="10">
         <v>0.6567</v>
@@ -9121,10 +9097,10 @@
         <v>0.6567</v>
       </c>
       <c r="I46" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="J46" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="47" ht="54" hidden="1" spans="1:10">
@@ -9138,7 +9114,7 @@
         <v>405</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E47" s="10">
         <v>0.6527</v>
@@ -9151,10 +9127,10 @@
         <v>0.6183</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" ht="175.5" spans="1:10">
@@ -9168,7 +9144,7 @@
         <v>408</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E48" s="10">
         <v>0.7833</v>
@@ -9177,16 +9153,16 @@
         <v>309</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H48" s="10">
         <v>0.7691</v>
       </c>
       <c r="I48" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J48" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="49" ht="175.5" hidden="1" spans="1:10">
@@ -9213,10 +9189,10 @@
         <v>0.7539</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" ht="409.5" spans="1:10">
@@ -9230,7 +9206,7 @@
         <v>411</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E50" s="10">
         <v>0.66</v>
@@ -9239,16 +9215,16 @@
         <v>336</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H50" s="10">
         <v>0.6545</v>
       </c>
       <c r="I50" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="51" ht="202.5" hidden="1" spans="1:10">
@@ -9262,7 +9238,7 @@
         <v>411</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E51" s="10">
         <v>0.6292</v>
@@ -9275,10 +9251,10 @@
         <v>0.6385</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" ht="324" spans="1:10">
@@ -9292,7 +9268,7 @@
         <v>414</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E52" s="10">
         <v>0.7205</v>
@@ -9301,13 +9277,13 @@
         <v>294</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H52" s="10">
         <v>0.7205</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>167</v>
@@ -9324,7 +9300,7 @@
         <v>414</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E53" s="10">
         <v>0.7107</v>
@@ -9337,7 +9313,7 @@
         <v>0.7071</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>167</v>
@@ -9354,7 +9330,7 @@
         <v>417</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E54" s="10">
         <v>0.6911</v>
@@ -9384,7 +9360,7 @@
         <v>417</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E55" s="10">
         <v>0.6769</v>
@@ -9399,7 +9375,7 @@
         <v>0.653</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>173</v>
@@ -9416,7 +9392,7 @@
         <v>420</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E56" s="10">
         <v>0.7619</v>
@@ -9431,7 +9407,7 @@
         <v>0.7013</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>119</v>
@@ -9448,7 +9424,7 @@
         <v>420</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E57" s="10">
         <v>0.7163</v>
@@ -9461,7 +9437,7 @@
         <v>0.6943</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>119</v>
@@ -9478,7 +9454,7 @@
         <v>423</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E58" s="10">
         <v>0.6404</v>
@@ -9493,10 +9469,10 @@
         <v>0.542</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" ht="135" hidden="1" spans="1:10">
@@ -9510,7 +9486,7 @@
         <v>423</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E59" s="10">
         <v>0.6266</v>
@@ -9523,10 +9499,10 @@
         <v>0.5417</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" ht="175.5" hidden="1" spans="1:10">
@@ -9540,23 +9516,23 @@
         <v>426</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E60" s="10">
         <v>0.7284</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="10">
         <v>0.6998</v>
       </c>
       <c r="I60" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="J60" s="9" t="s">
         <v>571</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="61" ht="175.5" hidden="1" spans="1:10">
@@ -9570,13 +9546,13 @@
         <v>426</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E61" s="10">
         <v>0.728</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>153</v>
@@ -9585,10 +9561,10 @@
         <v>0.6857</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" ht="135" hidden="1" spans="1:10">
@@ -9602,7 +9578,7 @@
         <v>429</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E62" s="10">
         <v>0.7215</v>
@@ -9615,7 +9591,7 @@
         <v>0.6594</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>103</v>
@@ -9632,7 +9608,7 @@
         <v>429</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E63" s="10">
         <v>0.647</v>
@@ -9647,7 +9623,7 @@
         <v>0.6489</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>103</v>
@@ -9679,7 +9655,7 @@
         <v>0.5734</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>109</v>
@@ -9696,7 +9672,7 @@
         <v>432</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E65" s="10">
         <v>0.634</v>
@@ -9709,10 +9685,10 @@
         <v>0.5658</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" ht="175.5" hidden="1" spans="1:10">
@@ -9726,7 +9702,7 @@
         <v>435</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E66" s="10">
         <v>0.6883</v>
@@ -9741,10 +9717,10 @@
         <v>0.6313</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" ht="175.5" hidden="1" spans="1:10">
@@ -9758,7 +9734,7 @@
         <v>435</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E67" s="10">
         <v>0.6086</v>
@@ -9771,10 +9747,10 @@
         <v>0.5972</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" ht="175.5" hidden="1" spans="1:10">
@@ -9788,7 +9764,7 @@
         <v>438</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E68" s="10">
         <v>0.7554</v>
@@ -9801,7 +9777,7 @@
         <v>0.7526</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>151</v>
@@ -9818,7 +9794,7 @@
         <v>438</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E69" s="10">
         <v>0.746</v>
@@ -9833,7 +9809,7 @@
         <v>0.746</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>151</v>
